--- a/data/trans_dic/P36BPD01_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD01_2023-Habitat-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9803424788285915</v>
+        <v>0.9803424788285914</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9726176687435611</v>
+        <v>0.972617668743561</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9763660757934586</v>
+        <v>0.9763660757934588</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9645924986162366</v>
+        <v>0.9670963692973248</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9610732260337524</v>
+        <v>0.9614733461832167</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9670744137503737</v>
+        <v>0.966878561850865</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9892198299191955</v>
+        <v>0.9892814656777059</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.980929379380322</v>
+        <v>0.9816074188360485</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9826117443191005</v>
+        <v>0.9830831728502533</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.923441252084653</v>
+        <v>0.9234412520846531</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9513230375344031</v>
+        <v>0.9513230375344032</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.937542492243217</v>
+        <v>0.9375424922432168</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9002139549386314</v>
+        <v>0.9002515307067861</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9386828747226145</v>
+        <v>0.9391640693711852</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9248217645672299</v>
+        <v>0.924422058974706</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9411183663465177</v>
+        <v>0.9420578702208037</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9616214802294281</v>
+        <v>0.9622771743106829</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9480811055535131</v>
+        <v>0.9484769896051978</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.9025822178928097</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8956316692781522</v>
+        <v>0.8956316692781521</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8990709257975549</v>
+        <v>0.899070925797555</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8740967777673889</v>
+        <v>0.8741687813278385</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8698281670842595</v>
+        <v>0.8736261112728853</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8798974551298812</v>
+        <v>0.8796694340099485</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9236553978215341</v>
+        <v>0.9258172832519918</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9147601560106814</v>
+        <v>0.914407044520536</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9141635406330646</v>
+        <v>0.9138061084553925</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.9532928632262543</v>
+        <v>0.9532928632262544</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.9582472880349198</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9559217923984737</v>
+        <v>0.9559217923984735</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.934888638027818</v>
+        <v>0.9353302879320197</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9462182353183859</v>
+        <v>0.9440141969400379</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9451159314173639</v>
+        <v>0.9451186528946788</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9669388886598344</v>
+        <v>0.9656298888820432</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9703385598059582</v>
+        <v>0.9689184545843269</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9642913724217616</v>
+        <v>0.9660051837566356</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.9383096611965812</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.945491899269591</v>
+        <v>0.9454918992695911</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.94200582616819</v>
+        <v>0.9420058261681897</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9281728959894934</v>
+        <v>0.9277878877554724</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9381978510372525</v>
+        <v>0.9376886563649253</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9363086974335911</v>
+        <v>0.9357612796942113</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9479250832364347</v>
+        <v>0.9471569194369982</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9520643329215916</v>
+        <v>0.9519599897092575</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9484185179452294</v>
+        <v>0.9476630692410426</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>666254</v>
+        <v>667983</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>704199</v>
+        <v>704493</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1376564</v>
+        <v>1376285</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>683264</v>
+        <v>683307</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>718749</v>
+        <v>719245</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1398680</v>
+        <v>1399351</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>939540</v>
+        <v>939579</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1002488</v>
+        <v>1003002</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1952907</v>
+        <v>1952063</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>982231</v>
+        <v>983212</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1026986</v>
+        <v>1027686</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>2002023</v>
+        <v>2002859</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>692943</v>
+        <v>693000</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>704002</v>
+        <v>707075</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1409693</v>
+        <v>1409327</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>732231</v>
+        <v>733944</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>740368</v>
+        <v>740082</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1464591</v>
+        <v>1464018</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>923988</v>
+        <v>924424</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1057210</v>
+        <v>1054747</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1990074</v>
+        <v>1990080</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>955664</v>
+        <v>954371</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1084159</v>
+        <v>1082573</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2030450</v>
+        <v>2034059</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3262981</v>
+        <v>3261627</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3496994</v>
+        <v>3495096</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>6781534</v>
+        <v>6777569</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3332419</v>
+        <v>3329719</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3548679</v>
+        <v>3548290</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6869244</v>
+        <v>6863772</v>
       </c>
     </row>
     <row r="24">
